--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Guca2b-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Guca2b-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Guca2b</t>
+  </si>
+  <si>
+    <t>Gucy2c</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Guca2b</t>
-  </si>
-  <si>
-    <t>Gucy2c</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,43 +516,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.2104683333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.631405</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.06878733333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.206362</v>
-      </c>
-      <c r="I2">
-        <v>0.1502692090917962</v>
-      </c>
-      <c r="J2">
-        <v>0.1502692090917961</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.1735666666666666</v>
+        <v>0.015763</v>
       </c>
       <c r="N2">
-        <v>0.5206999999999999</v>
+        <v>0.047289</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,140 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01193918815555555</v>
+        <v>0.003317612338333333</v>
       </c>
       <c r="R2">
-        <v>0.1074526934</v>
+        <v>0.029858511045</v>
       </c>
       <c r="S2">
-        <v>0.1502692090917962</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.1502692090917961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G3">
-        <v>0.2104683333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.6314049999999999</v>
-      </c>
-      <c r="I3">
-        <v>0.4597781082108409</v>
-      </c>
-      <c r="J3">
-        <v>0.4597781082108409</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M3">
-        <v>0.1735666666666666</v>
-      </c>
-      <c r="N3">
-        <v>0.5206999999999999</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.03653028705555554</v>
-      </c>
-      <c r="R3">
-        <v>0.3287725834999999</v>
-      </c>
-      <c r="S3">
-        <v>0.4597781082108409</v>
-      </c>
-      <c r="T3">
-        <v>0.4597781082108409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.178505</v>
-      </c>
-      <c r="H4">
-        <v>0.535515</v>
-      </c>
-      <c r="I4">
-        <v>0.389952682697363</v>
-      </c>
-      <c r="J4">
-        <v>0.3899526826973629</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.1735666666666666</v>
-      </c>
-      <c r="N4">
-        <v>0.5206999999999999</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.03098251783333333</v>
-      </c>
-      <c r="R4">
-        <v>0.2788426605</v>
-      </c>
-      <c r="S4">
-        <v>0.389952682697363</v>
-      </c>
-      <c r="T4">
-        <v>0.3899526826973629</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
